--- a/Projet_2(organisation)/Final/budget.xlsx
+++ b/Projet_2(organisation)/Final/budget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_documents\OpenClassroom\OC\Projet_2(organisation)\budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_documents\OpenClassroom\OC\Projet_2(organisation)\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1288,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1361,8 +1361,7 @@
         <v>238.58181818181819</v>
       </c>
       <c r="E2" s="22">
-        <f>E24/220</f>
-        <v>368.18181818181819</v>
+        <v>245.45</v>
       </c>
       <c r="F2" s="56"/>
       <c r="G2" s="80" t="s">
@@ -1373,7 +1372,7 @@
       <c r="J2" s="81"/>
       <c r="K2" s="12"/>
       <c r="L2" s="65">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1421,15 +1420,15 @@
       </c>
       <c r="J4" s="8">
         <f>E4*E2</f>
-        <v>368.18181818181819</v>
+        <v>245.45</v>
       </c>
       <c r="K4" s="58">
         <f>SUM(G4:J4)</f>
-        <v>368.18181818181819</v>
+        <v>245.45</v>
       </c>
       <c r="L4" s="46">
         <f>K4*$L$2</f>
-        <v>478.63636363636368</v>
+        <v>331.35750000000002</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1440,7 +1439,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="51">
@@ -1457,15 +1456,15 @@
       </c>
       <c r="J5" s="8">
         <f>E5*E2</f>
-        <v>1104.5454545454545</v>
+        <v>981.8</v>
       </c>
       <c r="K5" s="58">
         <f t="shared" ref="K5" si="0">SUM(G5:J5)</f>
-        <v>1104.5454545454545</v>
+        <v>981.8</v>
       </c>
       <c r="L5" s="46">
         <f>K5*$L$2</f>
-        <v>1435.909090909091</v>
+        <v>1325.43</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1493,15 +1492,15 @@
       </c>
       <c r="J6" s="8">
         <f>E6*E2</f>
-        <v>1840.909090909091</v>
+        <v>1227.25</v>
       </c>
       <c r="K6" s="58">
         <f>SUM(G6:J6)</f>
-        <v>1840.909090909091</v>
+        <v>1227.25</v>
       </c>
       <c r="L6" s="46">
         <f>K6*$L$2</f>
-        <v>2393.1818181818185</v>
+        <v>1656.7875000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1529,15 +1528,15 @@
       </c>
       <c r="J7" s="13">
         <f>E7*E2</f>
-        <v>184.09090909090909</v>
+        <v>122.72499999999999</v>
       </c>
       <c r="K7" s="59">
         <f>SUM(G7:J7)</f>
-        <v>184.09090909090909</v>
+        <v>122.72499999999999</v>
       </c>
       <c r="L7" s="47">
         <f>K7*$L$2</f>
-        <v>239.31818181818184</v>
+        <v>165.67875000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -1591,15 +1590,15 @@
       </c>
       <c r="J9" s="15">
         <f>E9*E2</f>
-        <v>184.09090909090909</v>
+        <v>122.72499999999999</v>
       </c>
       <c r="K9" s="60">
         <f>SUM(G9:J9)</f>
-        <v>534.15</v>
+        <v>472.78409090909088</v>
       </c>
       <c r="L9" s="46">
         <f>K9*$L$2</f>
-        <v>694.39499999999998</v>
+        <v>638.25852272727275</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1635,7 +1634,7 @@
       </c>
       <c r="L10" s="46">
         <f>K10*$L$2</f>
-        <v>1382.7272727272725</v>
+        <v>1435.9090909090908</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1665,15 +1664,15 @@
       </c>
       <c r="J11" s="8">
         <f>E11*E2</f>
-        <v>736.36363636363637</v>
+        <v>490.9</v>
       </c>
       <c r="K11" s="58">
         <f>SUM(G11:J11)</f>
-        <v>1233.9818181818182</v>
+        <v>988.5181818181818</v>
       </c>
       <c r="L11" s="46">
         <f>K11*$L$2</f>
-        <v>1604.1763636363637</v>
+        <v>1334.4995454545456</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1709,7 +1708,7 @@
       </c>
       <c r="L12" s="46">
         <f>K12*$L$2</f>
-        <v>553.09090909090912</v>
+        <v>574.36363636363637</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1739,15 +1738,15 @@
       </c>
       <c r="J13" s="9">
         <f>E13*E2</f>
-        <v>184.09090909090909</v>
+        <v>122.72499999999999</v>
       </c>
       <c r="K13" s="61">
         <f>SUM(G13:J13)</f>
-        <v>290.45454545454544</v>
+        <v>229.08863636363634</v>
       </c>
       <c r="L13" s="48">
         <f>K13*$L$2</f>
-        <v>377.59090909090907</v>
+        <v>309.2696590909091</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -1775,7 +1774,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1783,7 +1782,7 @@
       <c r="F15" s="56"/>
       <c r="G15" s="73">
         <f>B15*B2</f>
-        <v>497.61818181818182</v>
+        <v>746.42727272727279</v>
       </c>
       <c r="H15" s="8">
         <f>C15*C2</f>
@@ -1799,11 +1798,11 @@
       </c>
       <c r="K15" s="74">
         <f t="shared" ref="K15:K20" si="1">SUM(G15:J15)</f>
-        <v>497.61818181818182</v>
+        <v>746.42727272727279</v>
       </c>
       <c r="L15" s="46">
         <f t="shared" ref="L15:L20" si="2">K15*$L$2</f>
-        <v>646.90363636363634</v>
+        <v>1007.6768181818184</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1841,7 +1840,7 @@
       </c>
       <c r="L16" s="46">
         <f t="shared" si="2"/>
-        <v>1267.2163636363637</v>
+        <v>1315.9554545454546</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1850,7 +1849,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="67"/>
@@ -1861,7 +1860,7 @@
       </c>
       <c r="H17" s="8">
         <f t="shared" ref="H17:J17" si="3">C17*C2</f>
-        <v>212.72727272727272</v>
+        <v>425.45454545454544</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="3"/>
@@ -1873,11 +1872,11 @@
       </c>
       <c r="K17" s="75">
         <f t="shared" si="1"/>
-        <v>212.72727272727272</v>
+        <v>425.45454545454544</v>
       </c>
       <c r="L17" s="49">
         <f t="shared" si="2"/>
-        <v>276.54545454545456</v>
+        <v>574.36363636363637</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1907,15 +1906,15 @@
       </c>
       <c r="J18" s="8">
         <f>E18*E2</f>
-        <v>184.09090909090909</v>
+        <v>122.72499999999999</v>
       </c>
       <c r="K18" s="74">
         <f t="shared" si="1"/>
-        <v>308.49545454545455</v>
+        <v>247.12954545454545</v>
       </c>
       <c r="L18" s="46">
         <f t="shared" si="2"/>
-        <v>401.04409090909093</v>
+        <v>333.62488636363639</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1953,7 +1952,7 @@
       </c>
       <c r="L19" s="46">
         <f t="shared" si="2"/>
-        <v>1267.2163636363637</v>
+        <v>1315.9554545454546</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1989,7 +1988,7 @@
       </c>
       <c r="L20" s="48">
         <f t="shared" si="2"/>
-        <v>310.15636363636366</v>
+        <v>322.08545454545458</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2086,11 +2085,11 @@
       <c r="F25" s="23"/>
       <c r="G25" s="41">
         <f>SUM(G4:G19)</f>
-        <v>2239.2818181818184</v>
+        <v>2488.0909090909095</v>
       </c>
       <c r="H25" s="42">
         <f>SUM(H4:H19)</f>
-        <v>1914.5454545454543</v>
+        <v>2127.272727272727</v>
       </c>
       <c r="I25" s="42">
         <f>SUM(I4:I19)</f>
@@ -2098,15 +2097,15 @@
       </c>
       <c r="J25" s="42">
         <f>SUM(J4:J19)</f>
-        <v>4786.363636363636</v>
+        <v>3436.2999999999997</v>
       </c>
       <c r="K25" s="43">
         <f>SUM(K4:K20)</f>
-        <v>10252.390909090907</v>
+        <v>9363.8636363636342</v>
       </c>
       <c r="L25" s="40">
         <f>SUM(L4:L20)</f>
-        <v>13328.108181818183</v>
+        <v>12641.215909090908</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -2117,7 +2116,7 @@
     <row r="27" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L27" s="39">
         <f>L29-L25</f>
-        <v>2612.3092036363632</v>
+        <v>2528.2431818181813</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -2127,8 +2126,8 @@
     </row>
     <row r="29" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L29" s="63">
-        <f>L25*1.196</f>
-        <v>15940.417385454546</v>
+        <f>L25*1.2</f>
+        <v>15169.459090909089</v>
       </c>
     </row>
   </sheetData>
